--- a/UniDebAutomatedCar/doc/CommMtx.xlsx
+++ b/UniDebAutomatedCar/doc/CommMtx.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$2:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$2:$J$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Signal Name</t>
   </si>
@@ -104,15 +104,6 @@
   </si>
   <si>
     <t>PowertrainSystem</t>
-  </si>
-  <si>
-    <t>RadarSensor</t>
-  </si>
-  <si>
-    <t>UltrasonicSensor</t>
-  </si>
-  <si>
-    <t>FrontCamera</t>
   </si>
   <si>
     <t>FORWARD: 1
@@ -126,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,15 +126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,21 +162,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -213,17 +189,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -252,19 +217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -303,63 +255,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,202 +610,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-60</v>
-      </c>
-      <c r="D6" s="1">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>28</v>
+      <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>14</v>
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -871,176 +837,85 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <v>360</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>360</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="23"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A19:J19"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A11:J11"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
